--- a/biology/Botanique/Square_Joël-Le_Tac/Square_Joël-Le_Tac.xlsx
+++ b/biology/Botanique/Square_Joël-Le_Tac/Square_Joël-Le_Tac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Square_Jo%C3%ABl-Le_Tac</t>
+          <t>Square_Joël-Le_Tac</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Joël-Le Tac est un espace vert du 18e arrondissement de Paris.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Square_Jo%C3%ABl-Le_Tac</t>
+          <t>Square_Joël-Le_Tac</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square est situé au milieu de la place Constantin-Pecqueur.
 Le site est accessible par le 3, place Constantin-Pecqueur.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Square_Jo%C3%ABl-Le_Tac</t>
+          <t>Square_Joël-Le_Tac</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il rend hommage à Joël Le Tac (1918-2005), résistant français, journaliste et député. 
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Square_Jo%C3%ABl-Le_Tac</t>
+          <t>Square_Joël-Le_Tac</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Espace vert créé en 1935 sous le nom de « square de la place Constantin-Pecqueur » dans le quartier des Grandes-Carrières du 18e arrondissement de Paris, il porte, depuis le 2 février 2012, celui de « square Joël-Le Tac ».
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Square_Jo%C3%ABl-Le_Tac</t>
+          <t>Square_Joël-Le_Tac</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,9 +625,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En son milieu figure un monument de Paul Vannier érigé en 1936 à la mémoire de Théophile-Alexandre Steinlen (1859-1923) peintre et dessinateur d'origine suisse ayant résidé à Paris. Ces bronzes, fondus durant l'Occupation, ont été reconstitués et réinstallés au début des années 1960[1]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En son milieu figure un monument de Paul Vannier érigé en 1936 à la mémoire de Théophile-Alexandre Steinlen (1859-1923) peintre et dessinateur d'origine suisse ayant résidé à Paris. Ces bronzes, fondus durant l'Occupation, ont été reconstitués et réinstallés au début des années 1960. 
 Il est planté de viornes, d'aucuba, de buis, d'ifs, de prunus pissardii, de pommiers à fleurs et de platanes ; on y trouve aussi un point d'eau.
 			Fontaine dédiée à Steinlen.
 			Détail du monument.
